--- a/data/trans_bre/P22_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P22_R2-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.2569675319872539</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.663627010652103</v>
+        <v>2.663627010652101</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.08979899003421046</v>
@@ -649,7 +649,7 @@
         <v>-0.04042990212377575</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2576397048672083</v>
+        <v>0.2576397048672079</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.346908414936721</v>
+        <v>-4.525902216396229</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.416478423324229</v>
+        <v>-7.377500976458447</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.291754486549419</v>
+        <v>-4.251240437890606</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.423504260799864</v>
+        <v>-2.090821693961775</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5852723030244358</v>
+        <v>-0.5878879367049067</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6394664842520841</v>
+        <v>-0.6319668794143209</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5168486703402929</v>
+        <v>-0.5089790322100876</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1922032199437712</v>
+        <v>-0.167633618529776</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.614206886491938</v>
+        <v>3.886092651572138</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.359684180408193</v>
+        <v>2.042569565935508</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.061705757621486</v>
+        <v>4.749467528763008</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.97238829968621</v>
+        <v>6.934227516342937</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.125335228664963</v>
+        <v>1.119822046451516</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2102519503016382</v>
+        <v>0.3799643669750458</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9732379602821647</v>
+        <v>1.076583387866762</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8769018986301601</v>
+        <v>0.8805133179151993</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.8903711776249937</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.912683148698002</v>
+        <v>-0.9126831486980035</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.5746593989588933</v>
@@ -749,7 +749,7 @@
         <v>1.139797043859973</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1318228721180724</v>
+        <v>-0.1318228721180726</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-6.462851811488994</v>
+        <v>-6.262496931222225</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.352752967016469</v>
+        <v>-3.213574859732196</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.6082068021918421</v>
+        <v>-0.5420685089645646</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.123090289854108</v>
+        <v>-4.25571648556438</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8122504204017296</v>
+        <v>-0.7904612730504088</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5298172003242275</v>
+        <v>-0.5150831784145561</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6428603586129964</v>
+        <v>-0.7311719001273231</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4624644511324016</v>
+        <v>-0.4468219600315715</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,26 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.815685245581168</v>
+        <v>-0.876395358415848</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.445964651875453</v>
+        <v>2.32626543278995</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.298358931513368</v>
+        <v>2.337921495664609</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.154712642266202</v>
+        <v>2.109924790641977</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1544040760456691</v>
+        <v>-0.1625445582448851</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7650376387222602</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>8.305150987469098</v>
-      </c>
+        <v>0.7001499607597409</v>
+      </c>
+      <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="n">
-        <v>0.422961385398012</v>
+        <v>0.4690111090078661</v>
       </c>
     </row>
     <row r="10">
@@ -831,25 +829,25 @@
         <v>-1.734320250732253</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.6987130482644641</v>
+        <v>0.6987130482644645</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-0.1755588584371688</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.311800890847414</v>
+        <v>1.311800890847417</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.5456074675528478</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2846921742573296</v>
+        <v>0.2846921742573297</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>-0.2284109184722463</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1974885672567534</v>
+        <v>0.1974885672567538</v>
       </c>
     </row>
     <row r="11">
@@ -860,26 +858,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.149722106261501</v>
+        <v>-4.152465196158539</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.858655268679362</v>
+        <v>-2.131251613793895</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.747965734378887</v>
+        <v>-1.727701439367243</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.267037112341946</v>
+        <v>-2.160574065201585</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.8725281969284286</v>
+        <v>-0.8773853731095032</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.525969797947524</v>
+        <v>-0.6290318407560839</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.2754293862536101</v>
+        <v>-0.2528469198499368</v>
       </c>
     </row>
     <row r="12">
@@ -890,26 +888,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3462309875434802</v>
+        <v>0.7875485159048219</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.628729430581965</v>
+        <v>3.473485364090747</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.183422152734082</v>
+        <v>0.9751465018833341</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.818072959011171</v>
+        <v>4.725250226341402</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3104443888569411</v>
+        <v>0.7876277492649585</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.19503021638148</v>
+        <v>2.897968354485582</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>1.066109285742116</v>
+        <v>0.9943061951254644</v>
       </c>
     </row>
     <row r="13">
@@ -933,7 +931,7 @@
         <v>-0.8433844586366618</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-3.932751030174956</v>
+        <v>-3.932751030174955</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9795892738596532</v>
@@ -945,7 +943,7 @@
         <v>-0.1071995449110425</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.3044806995301483</v>
+        <v>-0.3044806995301482</v>
       </c>
     </row>
     <row r="14">
@@ -956,28 +954,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.4752581491048591</v>
+        <v>-0.4279049539078568</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.247444702806732</v>
+        <v>-1.407903265129155</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-4.768277703624406</v>
+        <v>-4.89468063109679</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-9.530723010532832</v>
+        <v>-9.551496301060045</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2766902283614007</v>
+        <v>-0.2417343474412042</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3420395415000204</v>
+        <v>-0.3707881519461071</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4733706115937941</v>
+        <v>-0.4755064802610558</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5595287093016507</v>
+        <v>-0.5495756424955524</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +986,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.595363701222661</v>
+        <v>4.759575547086053</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.821661984953391</v>
+        <v>3.975234610065173</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.395190948173912</v>
+        <v>3.604240577498169</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8721560935631845</v>
+        <v>0.6474165841370467</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.23758794484902</v>
+        <v>4.471432396574701</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.652078126325311</v>
+        <v>2.438300599581025</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6056254724459799</v>
+        <v>0.6331860129987674</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1073983768860428</v>
+        <v>0.08272535059324891</v>
       </c>
     </row>
     <row r="16">
@@ -1056,26 +1054,26 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.416694907010227</v>
+        <v>-9.068326591022158</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.344625455116762</v>
+        <v>-6.29883606355022</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.712851776968606</v>
+        <v>-2.066094229897932</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.993323892762632</v>
+        <v>-3.362394732322664</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4587536763148442</v>
+        <v>-0.4701165413098596</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.5695874322064435</v>
+        <v>-0.5564551002834032</v>
       </c>
       <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="n">
-        <v>-0.3487469560390717</v>
+        <v>-0.3716269394748078</v>
       </c>
     </row>
     <row r="18">
@@ -1086,26 +1084,26 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.859555036051884</v>
+        <v>4.442066182927347</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.429660142739399</v>
+        <v>4.145762547917707</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9368468844065654</v>
+        <v>0.9810114987114723</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.344863386838058</v>
+        <v>4.306101031238376</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4276689321805917</v>
+        <v>0.3512620754133368</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7878643424714737</v>
+        <v>0.8476300772186655</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>0.9776879243195702</v>
+        <v>1.072292618790346</v>
       </c>
     </row>
     <row r="19">
@@ -1129,7 +1127,7 @@
         <v>-0.1904252405621552</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.6070568345734508</v>
+        <v>0.6070568345734467</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04939358445216485</v>
@@ -1141,7 +1139,7 @@
         <v>-0.08835676291211728</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.08165474610750502</v>
+        <v>0.08165474610750445</v>
       </c>
     </row>
     <row r="20">
@@ -1152,26 +1150,26 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.291311246635783</v>
+        <v>-2.27142074931582</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-5.385804139018753</v>
+        <v>-5.273351966300044</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.535224116492862</v>
+        <v>-2.586590283506763</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-3.455741124442407</v>
+        <v>-3.196548643644258</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.9319918218731623</v>
+        <v>-0.9154731758077951</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7953405438491176</v>
+        <v>-0.7946010175382641</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3631281032137744</v>
+        <v>-0.359095608687379</v>
       </c>
     </row>
     <row r="21">
@@ -1182,26 +1180,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.485833801076827</v>
+        <v>1.78350364337039</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6872065172801094</v>
+        <v>0.8563965348492594</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.26418912619892</v>
+        <v>2.307467824690379</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.355215293178222</v>
+        <v>4.186941769599087</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>0.7100624503747835</v>
+        <v>0.7053506683028606</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>3.120334297544782</v>
+        <v>2.50849579601933</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7934306952279637</v>
+        <v>0.7687675029595662</v>
       </c>
     </row>
     <row r="22">
@@ -1248,28 +1246,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.717947949589337</v>
+        <v>-1.885169467750026</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.06841649546692</v>
+        <v>-1.807799741865158</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.62133107150556</v>
+        <v>-1.495537342643717</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.730870003271774</v>
+        <v>-2.67120907808903</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3369486206769401</v>
+        <v>-0.3421286911428013</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.4585452157507769</v>
+        <v>-0.4299471456776066</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.313974083751401</v>
+        <v>-0.3174308595041119</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1236582836383523</v>
+        <v>-0.1208269010832388</v>
       </c>
     </row>
     <row r="24">
@@ -1280,28 +1278,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.971743847281206</v>
+        <v>3.009899497881368</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.107837821106347</v>
+        <v>2.240343674780237</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.197639534950572</v>
+        <v>3.127880228382072</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.981251999530451</v>
+        <v>6.534378161964884</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9286441795192486</v>
+        <v>1.024471601561152</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8591998271633888</v>
+        <v>0.9546238871613594</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.107784354731289</v>
+        <v>0.982615726071762</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.3638207606106656</v>
+        <v>0.4061817614716212</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1335,7 @@
         <v>0.5792302868905075</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.360497436220419</v>
+        <v>0.3604974362204192</v>
       </c>
     </row>
     <row r="26">
@@ -1348,28 +1346,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-6.773971548913757</v>
+        <v>-7.020620106554482</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-2.725623110511901</v>
+        <v>-2.659073665439677</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3239298853347855</v>
+        <v>0.1915070135443938</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.7323230157174254</v>
+        <v>-0.6665998218983269</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4886171943841531</v>
+        <v>-0.4838205999149787</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4391242851194771</v>
+        <v>-0.419789006868676</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05717685873601954</v>
+        <v>0.02278599378842417</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1340373595545999</v>
+        <v>-0.1371033338131288</v>
       </c>
     </row>
     <row r="27">
@@ -1380,28 +1378,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-0.5502157031732966</v>
+        <v>-0.9958612027361644</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.97311519586853</v>
+        <v>1.641793887273471</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.950542175153033</v>
+        <v>5.112272425377727</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.520164478802994</v>
+        <v>3.691828925494339</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.05813193690933206</v>
+        <v>-0.08169040637268978</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5387999199878213</v>
+        <v>0.4247344205726629</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.560307236551411</v>
+        <v>1.635550750687357</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.014019749894548</v>
+        <v>1.083054723618369</v>
       </c>
     </row>
     <row r="28">
@@ -1448,28 +1446,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.621367811779265</v>
+        <v>-2.479902398768143</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.498581330902113</v>
+        <v>-1.482074571810174</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.3434941332693597</v>
+        <v>-0.2124772088586623</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.9438719395943996</v>
+        <v>-0.7820534601010337</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.3567967797539096</v>
+        <v>-0.3500654999998164</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.287620948196788</v>
+        <v>-0.2766839046436366</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.0916384077969136</v>
+        <v>-0.05237129151390824</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.08794193122103945</v>
+        <v>-0.07233126766968501</v>
       </c>
     </row>
     <row r="30">
@@ -1480,28 +1478,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.2112469673070985</v>
+        <v>-0.164367729282126</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5740805972920524</v>
+        <v>0.5539297162299934</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.672500051524438</v>
+        <v>1.768719209458439</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.978912845675586</v>
+        <v>2.021029042442662</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>-0.03444307595119095</v>
+        <v>-0.02472541117129945</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1510045869447577</v>
+        <v>0.1450114765065341</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5291934253826357</v>
+        <v>0.5608916388663755</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.221622667934667</v>
+        <v>0.2249016599616746</v>
       </c>
     </row>
     <row r="31">
